--- a/courses.xlsx
+++ b/courses.xlsx
@@ -9,6 +9,7 @@
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="time" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="combine" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="combine1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
@@ -13050,6 +13051,7791 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>创建时间</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>课程名称</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>学习人数</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>学习时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>42569.73819444444</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>通过代码审计学习Web安全</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>42580.43194444444</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Robot Framework自动化测试基础实战课程</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>42561.39166666667</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>基于 Amazon AWS EC2 部署 Ghost 博客</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>42571.6375</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Vue.js+Koa.js+MongoDB打造“什么值得买”网站</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>42545.91666666666</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>kafka代码实战--让你全面学习Kafka</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>42565.60347222222</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>React+Express+MongoDB 实现网易云音乐</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>42561.58055555557</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>从头开始学习漏洞利用</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>42061.77291666667</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>制作jQuery插件</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>42537.44930555556</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Floodlight Rest API 应用实战</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>42337.46597222222</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Kali 渗透测试 - 后门技术实战（10个实验）</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>42084.00555555556</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>响应式设计方案</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>42571.47986111111</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Go语言开发在线商城</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>42562.75763888889</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现轻量型 Web 框架</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>42421.66666666666</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Python 数据分析入门与进阶</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>42597.43125</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>楼+之Python实战</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>42023.65208333332</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - ActionBar</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>42526.44236111111</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>BurpSuite基础教程</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>42583.45763888889</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>R语言实现城镇居民全年人均消费支出的聚类分析</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>42584.40694444445</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>R语言建立VAR模型分析联合内生变量的动态关系</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>41885.47013888889</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>深入学习 《C程序设计语言（第2版·新版）》</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>42486.45902777778</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>使用 Githook 实现团队 Coding Review 流程</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>41850.56388888889</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - 轻量化存储（Shared Preference）</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>42576.64375</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>R语言分析股票指数的GARCH效应</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>42577.67708333334</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>OpenStack Ocata版本单节点搭建</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>42596.72083333333</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Hyperledger Fabric 区块链环境部署</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>42077.39444444444</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>React 基础实例</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>42540.69652777778</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>使用 SparkSQL 分析纽约市犯罪数据</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>42068.43055555555</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>JavaScript模块化开发</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>41767.66041666668</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>RPM软件包简易制作与安装</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>41823.5625</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>仿 StackOverflow 开发在线问答系统</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>42065.42986111111</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Node.js使用Sequelize操作MySQL</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>41624.92083333333</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>dialog+ncurse实现命令行带提醒功能计时器</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>42569.42013888889</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>基于R语言的多元线性回归--我国经济增长的定量研究</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>42562.47083333333</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>R语言对高频交易订单流进行建模分析</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>42577.44722222222</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>实现express框架中的session中间件</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>42582.45902777778</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Pandas 使用教程</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>42619.42430555557</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>高级bash脚本编程指南</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>41850.55625</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - 内部存储（文件）</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>41836.40972222222</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - 补间动画</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>41941.5625</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>C 语言经典项目实战</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>246</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>41599.82222222222</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>jQuery翻转拼图游戏</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>42578.55486111111</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R语言实现金融数据的时间序列分析及建模 </t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42337.46527777778</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Kali 渗透测试 - Web 应用攻击实战</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>42562.61875</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>python 实现简单邮件客户端</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>41842.38055555556</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - 通知</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>41835.71041666667</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - 常用绘图方法</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>42499.68055555555</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现中文错别字高亮系统</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>42527.39236111111</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Wireshark抓包解析 OpenFlow 协议</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>42563.72986111111</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>序列的数据挖掘--《数据科学：R语言实战》</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>42295.7</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>由浅入深学网络</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>42420.61597222222</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Python网络爬虫实战--Scrapy框架学习</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>42501.60347222222</v>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Spark 机器学习之电影推荐系统</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>41868.45208333333</v>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - 桌面小部件（Widget）</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>42318.56805555556</v>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Kali 渗透测试 - 服务器攻击实战（20个实验）</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>327</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>41823.56180555555</v>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>仿OpenStack开发云计算管理软件</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>42556.62916666668</v>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Sqlmap快速上手教程</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>41949.41041666668</v>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Angular.js实现即时搜索提示</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>42080.67569444444</v>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Node.js静态文件服务器</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>42087.57291666666</v>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Node.js 开发端口扫描器</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>42534.54722222222</v>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>sqli-labs通关指南系列</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>41885.54097222222</v>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>深入学习 《Python基础教程（第2版 修订版）》</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>41850.55694444444</v>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - 手势</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>42428.66527777778</v>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Python 解决哲学家就餐问题</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>41850.56527777778</v>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - SQLite数据库连接</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>41842.47847222222</v>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - 对话框集锦</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>42245.49027777778</v>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>PHP 动态页面静态化实战</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>41739.61527777778</v>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>使用flex和bison实现一个计算器</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>42562.42222222222</v>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>对英国房屋价格建模并预测 ---《量化金融R语言初级教程》</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>42207.72569444445</v>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>C 语言实现Linux who命令</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>42484.66041666668</v>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Spark的模式挖掘—FPGrowth算法</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>42556.57013888889</v>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>R语言进行商业问卷分析--《菜鸟侦探挑战数据分析》</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>42554.61388888889</v>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>基于R的高级数据管理--《R语言实战（第2版）》</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>42563.57708333333</v>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>使用R语言基于新浪股票数据分析金融数据的“统计常识”</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>41611.76736111111</v>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>jQuery制作商品图片放大器</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>42233.37916666668</v>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Spark 基础之 SparkR 快速上手</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>42534.55277777778</v>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>使用决策树算法预测森林植被</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>438</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>41941.56319444445</v>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>C++ 经典项目实战</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>42061.41527777778</v>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Go 语言实现缓存系统</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>42076.60833333333</v>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Scala 专题教程 - 抽象成员</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>42541.47013888889</v>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Spark 自定义 UDF 分析 Uber 数据</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>468</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>42535.74583333332</v>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Floodlight 入门教程</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>471</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>42555.55277777778</v>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>python 二手房信息爬取与数据呈现</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>471</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>41941.56388888889</v>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Node.js 经典项目实战</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>474</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>42543.44722222222</v>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>MapReduce 分析 Youtube 数据</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>42443.43611111111</v>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Laravel 5.1制作简易留言板/评论系统</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>42449.64583333334</v>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>Laravel 5.1 实现 Markdown 编辑器</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>42568.42847222222</v>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Java模拟实现实验楼课程管理系统</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>42571.61458333334</v>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>R 语言实现股票数据的预处理及分析</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>42225.74861111111</v>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Ansible 基础教程</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>42423.71805555555</v>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>Laravel 5.1 制作简易相册</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>528</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>41935.69861111111</v>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Node.js+Redis实现漂流瓶</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>537</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>42066.57013888889</v>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Go 语言实现WebSocket协议</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>537</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>41921.78194444445</v>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现Linux ls命令</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>41943.38333333333</v>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Node.js上传文件实例</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>549</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>42199.98611111111</v>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 语言实现Linux cp 命令  </t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>555</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>42537.56388888889</v>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Makefile基础教程</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>558</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>41679.74930555555</v>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Simple AI实用手册</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>561</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>42093.47708333333</v>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>基于Koa.js和React开发应用</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>42390.76180555556</v>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Laravel 5.1 快速搭建用户认证系统</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>42544.58819444444</v>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>React 全家桶构建后台管理平台</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>42086.60694444443</v>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Scala 专题教程 - Extractor</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>41611.50486111111</v>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>记忆翻转挑战游戏</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>42555.74444444444</v>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>利用Flask-AppBuilder 快速构建Web后台管理应用</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>41700.73055555556</v>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Scratch少儿编程体验课</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>609</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>42443.41527777778</v>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Spark流式计算电商商品关注度</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>609</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>42554.46458333332</v>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>scikit-learn 实战之监督学习</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>624</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>42568.48055555556</v>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Matplotlib 及 Seaborn 使用教程</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>41870.40277777778</v>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>PHP文件编程</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>657</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>42233.62222222222</v>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>Linux系统安装git服务器</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>675</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>41935.69583333333</v>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>Node.js+Angular.js 实现简易聊天室</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>678</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>42090.88888888889</v>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>Spark基础之GraphX图计算框架学习</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>681</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>42493.62291666667</v>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>Spark 实现黑名单实时过滤</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>684</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>42561.6375</v>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>scikit-learn 实战之非监督学习</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>690</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>42235.41180555556</v>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>ThinkPHP 简易文章管理系统</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>693</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>42227.52916666667</v>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>Linux系统安装及配置邮件服务器</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>41948.46180555555</v>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>Meteor+React实现Todo应用</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>42259.43611111111</v>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>C++ 使用 Crypto++ 库实现常用的加密算法</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>42266.44166666668</v>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>C++操作 redis 实现异步订阅和发布</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>729</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>41943.60416666666</v>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>纯前端打造实时markdown编辑器</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>735</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>41844.46666666667</v>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>使用 Python 生成分形图片</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>738</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>41712.57777777778</v>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>GNU C 的编译与链接</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>744</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>42245.68888888889</v>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>基于七牛云创建个人 hexo 博客</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>744</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>42541.58680555555</v>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>SSH框架实现简单的在线考试系统</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>747</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n">
+        <v>41623.68472222222</v>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>基于 CCS3 实现抽奖大转盘</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n">
+        <v>42070.55625</v>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>Scala 专题教程 - Case Class和模式匹配</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>762</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n">
+        <v>41933.62916666668</v>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>Node.js实现私人笔记</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>777</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n">
+        <v>42535.56666666668</v>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>Kmeans聚类算法评估足球比赛</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>777</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n">
+        <v>41842.60347222222</v>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>实验楼Python研发工程师</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n">
+        <v>42077.55902777778</v>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Python 实现 Redis 异步客户端 </t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>801</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n">
+        <v>42072.68263888889</v>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>Scala 专题教程 - 隐式变换和隐式参数</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>804</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n">
+        <v>42316.38819444443</v>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>PHP实例--理解无限级分类</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>807</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n">
+        <v>42247.41736111111</v>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>Python 获取挂号信息并邮件通知</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n">
+        <v>42436.73055555556</v>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>Python实现java web项目远端自动化更新部署</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n">
+        <v>42228.52569444444</v>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现 Linux 网络嗅探器</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>813</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n">
+        <v>42171.53680555556</v>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>构建 ELK(+Redis) 分布式 Nginx 日志分析系统</t>
+        </is>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>819</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n">
+        <v>41610.45416666667</v>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>jQuery特效导航菜单</t>
+        </is>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n">
+        <v>41591.71180555555</v>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>制作Markdown预览器</t>
+        </is>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>828</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n">
+        <v>41935.69513888889</v>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>Node.js实现简单爬虫</t>
+        </is>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>828</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="n">
+        <v>42220.39375</v>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>Spark 基础之使用机器学习库 MLlib</t>
+        </is>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>831</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="n">
+        <v>42449.71388888889</v>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>使用 Python3 编写 Github 自动周报生成器</t>
+        </is>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>837</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="n">
+        <v>41857.65972222222</v>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>深入学习 《C++ Primer 第五版》</t>
+        </is>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>855</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="n">
+        <v>42260.45277777778</v>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>C++ 实现高性能 RTTI 库</t>
+        </is>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>855</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="n">
+        <v>42315.47152777778</v>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>C++ 实现基数树 radix tree</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>870</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="n">
+        <v>42337.72291666668</v>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>使用OpenCV进行图片平滑处理打造模糊效果</t>
+        </is>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="n">
+        <v>42420.40277777778</v>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>用Vue.js 和 vue-router 创建单页导航和分页</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="n">
+        <v>41737.43680555555</v>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>实验楼环境体验课</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>885</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="n">
+        <v>42361.55347222222</v>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>SDN软件定义网络动手实验</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>891</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="n">
+        <v>42322.56388888889</v>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>PHP实例--CURL实现简单采集</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>897</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="n">
+        <v>42246.57569444443</v>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>PHP 之 Ajax 实例讲解</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>912</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="n">
+        <v>42368.45902777778</v>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>PHP 封装分页类</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="n">
+        <v>42583.70208333333</v>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>Java实现简单的项目进度管理系统</t>
+        </is>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>933</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="n">
+        <v>42339.69236111111</v>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>PHP实现ECharts图表功能</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>939</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="n">
+        <v>42406.4125</v>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>Laravel 项目实战：仿新浪微博Web应用</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>939</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>5484</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="n">
+        <v>42477.66180555556</v>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>Spark2.x 快速入门教程</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>969</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="n">
+        <v>41603.30347222222</v>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>瀑布流加载图片墙</t>
+        </is>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>975</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="n">
+        <v>42366.77152777778</v>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>Java实现在线协作文档编辑</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>984</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="n">
+        <v>42221.39097222222</v>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>Linux 系统搭建及配置 DNS 服务器</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>990</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>5691</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="n">
+        <v>42315.42361111111</v>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>基于微信公众号实现邮件信息推送</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>990</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="n">
+        <v>42238.60625</v>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>Python3 实现命令行动态进度条</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>996</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="n">
+        <v>42205.74166666667</v>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现文件类型统计程序</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>5805</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="n">
+        <v>42405.42013888889</v>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>Kivy－－使用Python开发跨平台的GUI程序</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="n">
+        <v>41592.79930555557</v>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>基于 canvas 实现放大镜效果</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>1044</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="n">
+        <v>42332.67916666667</v>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>Metasploit实现木马生成、捆绑及免杀</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="n">
+        <v>42433.87083333332</v>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>Python实现遗传算法求解n-queens问题</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="n">
+        <v>41669.44166666668</v>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>Android制作接收与发送短信</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="n">
+        <v>42214.63680555556</v>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>Linux下实现多线程模型</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="n">
+        <v>41941.48958333334</v>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>Python 经典项目实战</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="n">
+        <v>42221.42222222222</v>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>C 语言实现多线程排序</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="n">
+        <v>42259.45486111111</v>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>ThinkPHP5 开发后台权限管理系统</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>1119</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="n">
+        <v>42242.74791666667</v>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>RabbitMQ 消息队列</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>1125</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="n">
+        <v>41618.64444444444</v>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>基于 jQuery 实现图片轮播</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="n">
+        <v>41743.74791666667</v>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>使用ScrollMagic完成绚丽的视差滚动效果</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>1143</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>6636</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="n">
+        <v>42107.5625</v>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>Spark 基础之 DataFrame 基本概念学习</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>1158</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="n">
+        <v>42207.52291666667</v>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>Python实现模板引擎</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>1167</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="n">
+        <v>41940.71736111111</v>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>BMP图像信息隐藏</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>1173</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>6819</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="n">
+        <v>41744.60069444445</v>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>Collabtive系统浏览器同源策略探索实验</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>7158</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="n">
+        <v>42556.69791666666</v>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>JAVA基于SSM框架实现简历生成</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="n">
+        <v>42368.58402777778</v>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>深度学习初探——入门DL主流框架</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>1197</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>7251</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="n">
+        <v>41606.475</v>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>GTK开发视频播放器</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>1203</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="n">
+        <v>42309.74513888889</v>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>基于 Bootstrap 和 PHP 实现有道翻译</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>7317</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="n">
+        <v>42551.42013888889</v>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>决策树实战项目-鸢尾花分类</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="n">
+        <v>42549.45277777778</v>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>基于卷积神经网络实现图片风格的迁移</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="n">
+        <v>41729.68402777778</v>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>麦客Android开发工程师</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>1248</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>7494</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="n">
+        <v>42053.59166666667</v>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>动手实战学Docker (15个实验+54个视频)</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>1248</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="n">
+        <v>42211.48472222222</v>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>基于 Servlet 的简单验证码图片生成</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>1248</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>7629</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="n">
+        <v>42249.42569444444</v>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>PHP 开发在线聊天室</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>1257</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="n">
+        <v>42191.67013888889</v>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>Spark 基础之 Streaming 快速上手</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>8016</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="n">
+        <v>42224.35347222222</v>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>基于PyQt5 实现地图中定位相片拍摄位置</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="n">
+        <v>41841.55694444444</v>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>R语言绘制文字云</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="n">
+        <v>42226.43055555555</v>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>C++ 实现简易 Docker 容器</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>8121</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="n">
+        <v>42569.40486111111</v>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>基于TensorFlow实现卷积神经网络</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>1341</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="n">
+        <v>42211.45833333334</v>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>Spark 基础之 SQL 快速上手</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>1356</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="n">
+        <v>42495.93888888889</v>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>使用 Spark 进行流量日志分析</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>1368</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="n">
+        <v>42127.30486111111</v>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>Spark 基础之 DataFrame 高阶应用技巧</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>1377</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="n">
+        <v>42269.68263888889</v>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jQuery在购物车的使用</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="n">
+        <v>42178.41805555556</v>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>使用 Electron 编写跨平台桌面应用</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>1383</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>8475</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="n">
+        <v>42193.66736111111</v>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C语言实现Linux touch命令 </t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>1383</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>8487</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="n">
+        <v>42336.83819444444</v>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>使用OpenCV&amp;&amp;C++进行模板匹配</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>1392</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="n">
+        <v>41666.42777777778</v>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>Android手机上的计算器实现</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>1458</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="n">
+        <v>42389.90555555555</v>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现大数计算器（加减乘除）</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>1509</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>8613</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="n">
+        <v>42253.40555555555</v>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>基于 Luosimao 的人机验证服务</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>1527</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>8658</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="n">
+        <v>42260.38263888889</v>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>C++ 实现内存泄露检查器</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>1527</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>8835</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="n">
+        <v>41632.60763888889</v>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>Linux 防火墙技术</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>1533</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>8952</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="n">
+        <v>42311.47569444445</v>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现简单滤镜</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>1554</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="n">
+        <v>41620.41180555556</v>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>Flask 实现简单聊天室</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>1557</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>9162</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="n">
+        <v>42235.74930555555</v>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>基于 SendCloud 的邮箱验证</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>1584</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>9342</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="n">
+        <v>42221.40902777778</v>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>C 语言实现聊天室软件</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>1614</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>9372</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="n">
+        <v>42255.73194444443</v>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>LVS 集群负载均衡实战</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>1629</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>9441</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="n">
+        <v>41731.64027777778</v>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>竞态条件漏洞实验</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>1632</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>9558</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="n">
+        <v>42453.31805555556</v>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>基于SVM的猫咪图片识别器</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>9618</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="n">
+        <v>41835.38680555556</v>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>J2SE网络通信实践</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>9678</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="n">
+        <v>42495.47083333333</v>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>SSM + easyUI 搭建简易的人事管理系统</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>9708</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="n">
+        <v>41567.54791666667</v>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>GO语言开发2048</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>9726</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="n">
+        <v>42465.46527777778</v>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>使用 Flume 收集数据</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>1689</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>9753</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="n">
+        <v>42251.67013888889</v>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>OAuth 2.0 授权原理与实战</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>1704</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>9978</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="n">
+        <v>42168.74583333332</v>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>C++实现运动目标的追踪</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>1707</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>10173</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="n">
+        <v>42266.57222222222</v>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>基于 Gitbook 制作电子书</t>
+        </is>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>1716</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="n">
+        <v>42486.58263888889</v>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>SSM 框架整合实例</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>1716</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>10281</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="n">
+        <v>42295.67638888889</v>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>自联想器的 Python 实现</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>1761</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>10341</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="n">
+        <v>42286.98125</v>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>Python 3 实现图片转彩色字符</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>1767</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>10383</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="n">
+        <v>42033.69583333333</v>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>CSS3实现“红包照片”模糊效果</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>1776</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>10392</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="n">
+        <v>41582.65138888889</v>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>基于 JavaScript 实现打地鼠游戏</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>1824</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>10461</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="n">
+        <v>42311.69236111111</v>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>C++ 编写 json 生成器</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>1833</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="n">
+        <v>41739.91388888889</v>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>亲戚称谓计算器</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>10551</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="n">
+        <v>42543.43472222222</v>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>R 语言基础入门</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>1857</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>10602</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="n">
+        <v>42346.61388888889</v>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>DVWA之暴力破解攻击</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>10893</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="n">
+        <v>42501.60347222222</v>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadoop 分布式文件系统——导入和导出数据  </t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>10965</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="n">
+        <v>41851.65138888889</v>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>掌阅科技Python工程师</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>10998</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="n">
+        <v>42226.46944444445</v>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>使用 Spark 和 D3.js 分析航班大数据</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>11007</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="n">
+        <v>42561.41805555556</v>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>Flask + VueJS 全栈 Web 开发实战</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>11322</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="n">
+        <v>42259.43888888889</v>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>Python3 智能裁切图片</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>2037</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>11331</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="n">
+        <v>42248.60763888889</v>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>Python实现网站模拟登陆</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>2055</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="n">
+        <v>42259.42222222222</v>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">基于腾讯文智的情感分析 </t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>2070</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>11454</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="n">
+        <v>42186.65277777778</v>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>C++ 打造 Markdown 解析器</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>2073</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>11496</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="n">
+        <v>41585.40972222222</v>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>shell打字游戏</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>2079</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>11535</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="n">
+        <v>41666.41666666666</v>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>基于 JavaScript 按键控制坦克移动</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>2085</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>11958</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="n">
+        <v>41757.39375</v>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>Elgg 系统 CSRF 攻击实验</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>11985</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="n">
+        <v>42439.48472222222</v>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>Hadoop 图处理--《hadoop应用框架》</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>2118</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>12027</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="n">
+        <v>42484.52222222222</v>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>给Python3爬虫做一个界面.妹子图网实战</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>2127</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>12339</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="n">
+        <v>41660.54305555556</v>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现通讯录</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>2133</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>12342</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="n">
+        <v>41581.60694444443</v>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>Linux桌面词典</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>2190</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>12693</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="n">
+        <v>42247.37986111111</v>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>Python实现Zip文件的暴力破解</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>2211</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>12759</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="n">
+        <v>41723.61041666667</v>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>Return-to-libc攻击实验</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>12798</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="n">
+        <v>42492.47430555556</v>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>使用卷积神经网络进行图片分类</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>2253</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>13641</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="n">
+        <v>42361.40555555555</v>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>Python实现Huffman编码解压缩文件</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>2256</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>13818</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="n">
+        <v>42186.63680555556</v>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>100 行 C++ 代码实现线程池</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>2295</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>13947</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="n">
+        <v>42373.88819444443</v>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>C++实现智能指针</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>2310</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>14142</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="n">
+        <v>41668.42777777778</v>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>酷炫OpenGL旋转地球模型</t>
+        </is>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>2316</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>14154</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="n">
+        <v>42204.43333333332</v>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现 FTP 弱口令扫描器</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>2340</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>14226</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="n">
+        <v>41516.60694444443</v>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>Perl基础教程</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>2370</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>14520</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="n">
+        <v>42478.61597222222</v>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>Spring MVC 简易教程</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>2370</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>14910</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="n">
+        <v>41842.60486111111</v>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>实验楼运维工程师</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>2403</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>14961</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="n">
+        <v>41863.69930555556</v>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>Yii 2系列教程</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>2454</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>14997</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="n">
+        <v>42032.68958333333</v>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>GDB 简明教程</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>2466</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>15390</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="n">
+        <v>42481.43888888889</v>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>流式实时日志分析系统——《Spark 最佳实践》</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>2469</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>15486</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="n">
+        <v>42198.4</v>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>Java实现简单的支付平台业务流程</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>15717</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="n">
+        <v>41743.79791666667</v>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>简单词法分析器（C++语言）</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>2526</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>15759</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="n">
+        <v>42240.57083333333</v>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现 FTP 服务器</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>2529</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>16635</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="n">
+        <v>42186.64097222222</v>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>C++ 实现高性能内存池</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>2544</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>16662</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="n">
+        <v>41823.5625</v>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>Python版设计模式实践</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>2586</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>16743</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="n">
+        <v>42406.15833333333</v>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>使用Python定制词云</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>2601</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>16743</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="n">
+        <v>41729.44375</v>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>单向哈希函数与MAC实验</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>2604</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>17373</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="n">
+        <v>42350.6375</v>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>数独游戏的Python实现与破解</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>2604</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>17403</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="n">
+        <v>42298.425</v>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>ffmpeg 结合 SDL 编写播放器</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>2607</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>17517</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="n">
+        <v>41757.45069444443</v>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>Elgg系统跨站脚本攻击实验</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>2616</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>17529</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="n">
+        <v>41596.76388888889</v>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>Python开发简单计算器</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>2622</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>17544</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="n">
+        <v>42444.46527777778</v>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>Kafka快速上手教程</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>2622</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>17721</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="n">
+        <v>41941.59097222222</v>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>Spark 大数据动手实验</t>
+        </is>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>2667</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>18147</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="n">
+        <v>42319.69444444445</v>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>使用 Github Pages 和 Hexo 搭建独立博客</t>
+        </is>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>2670</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>18435</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="n">
+        <v>41674.59513888889</v>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>Ubuntu Server体验课</t>
+        </is>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>2685</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>18759</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="n">
+        <v>42290.46944444445</v>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>PHP微信公众号接口开发</t>
+        </is>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>2697</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>18765</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="n">
+        <v>42290.73611111111</v>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>Python应用马尔可夫链算法实现随机文本生成</t>
+        </is>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>18795</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="n">
+        <v>42211.46041666667</v>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>PHP 实现用户注册登录功能</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>2754</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>19179</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="n">
+        <v>42417.46180555555</v>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>Python打造漏洞扫描器</t>
+        </is>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>2766</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>19290</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="n">
+        <v>42162.67916666667</v>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>C++ 实现银行排队服务模拟</t>
+        </is>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>2802</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>19482</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="n">
+        <v>41556.70972222222</v>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>基于 Hadoop 对武侠小说进行词频分析</t>
+        </is>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>19485</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="n">
+        <v>41597.76597222222</v>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>网页版2048</t>
+        </is>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="n">
+        <v>42024.57361111111</v>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>Scala 开发二十四点游戏</t>
+        </is>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>2856</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>19632</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="n">
+        <v>41744.57430555556</v>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
+        <is>
+          <t>Collabtive系统跨站请求伪造攻击实验</t>
+        </is>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>2883</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>19728</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="n">
+        <v>42557.43472222222</v>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>Sql注入基础原理介绍</t>
+        </is>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>2889</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>19797</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="n">
+        <v>42331.4625</v>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>跟我一起来玩转Makefile</t>
+        </is>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>2916</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>19845</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="n">
+        <v>42317.40763888889</v>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>基于无监督学习的自编码器实现</t>
+        </is>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>19926</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="n">
+        <v>41668.68263888889</v>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>网页版扫雷</t>
+        </is>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>3048</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>19962</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="n">
+        <v>41851.65763888889</v>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>Android小案例 - Fragment（片段）</t>
+        </is>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>3051</v>
+      </c>
+      <c r="D285" s="0" t="n">
+        <v>19968</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="n">
+        <v>41675.82847222222</v>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>ThinkPHP实现云书签</t>
+        </is>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>3084</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>20124</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="n">
+        <v>42217.90069444444</v>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>Python3 实现可控制肉鸡的反向Shell</t>
+        </is>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>3096</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>20301</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="n">
+        <v>42364.42361111111</v>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现LRU缓存</t>
+        </is>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>3189</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>20391</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="n">
+        <v>42380.41875</v>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>人机对战初体验:Python基于Pygame实现四子棋游戏</t>
+        </is>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>3204</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>20541</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="n">
+        <v>42542.56944444445</v>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>Python开发木马程序</t>
+        </is>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>3264</v>
+      </c>
+      <c r="D290" s="0" t="n">
+        <v>20637</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="n">
+        <v>41637.75416666668</v>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>Java和WebSocket开发网页聊天室</t>
+        </is>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>3438</v>
+      </c>
+      <c r="D291" s="0" t="n">
+        <v>20697</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="n">
+        <v>42238.84722222222</v>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>基于图灵机器人实现QQ群聊机器人</t>
+        </is>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>3438</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>20958</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="n">
+        <v>42465.60555555556</v>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>MyBatis 框架基础入门</t>
+        </is>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>3438</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>21159</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="n">
+        <v>41632.61805555555</v>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>Rails基础入门</t>
+        </is>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>3531</v>
+      </c>
+      <c r="D294" s="0" t="n">
+        <v>21168</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="n">
+        <v>41729.44513888889</v>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>公钥加密与PKI实验</t>
+        </is>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>3549</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>21327</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="n">
+        <v>42451.51666666667</v>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>Python实现从excel读取数据并绘制成精美图像</t>
+        </is>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>3588</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>21921</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="n">
+        <v>41556.70972222222</v>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>Mahout教程</t>
+        </is>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>3594</v>
+      </c>
+      <c r="D297" s="0" t="n">
+        <v>22563</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="n">
+        <v>42515.6625</v>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
+        <is>
+          <t>《 Go 语言实战 》 快速开始一个 Go 程序</t>
+        </is>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>3603</v>
+      </c>
+      <c r="D298" s="0" t="n">
+        <v>22764</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="n">
+        <v>42330.82916666667</v>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现密码强度检测器</t>
+        </is>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>3618</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>22899</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="n">
+        <v>41736.86944444444</v>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
+        <is>
+          <t>Java日记软件——记录生活每一天</t>
+        </is>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>3702</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>23109</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="n">
+        <v>41674.45486111111</v>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
+        <is>
+          <t>Java实现MD5文件校验</t>
+        </is>
+      </c>
+      <c r="C301" s="0" t="n">
+        <v>3705</v>
+      </c>
+      <c r="D301" s="0" t="n">
+        <v>23430</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="n">
+        <v>42339.67291666667</v>
+      </c>
+      <c r="B302" s="0" t="inlineStr">
+        <is>
+          <t>Twitter数据情感分析</t>
+        </is>
+      </c>
+      <c r="C302" s="0" t="n">
+        <v>3723</v>
+      </c>
+      <c r="D302" s="0" t="n">
+        <v>23490</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="n">
+        <v>42542.76180555556</v>
+      </c>
+      <c r="B303" s="0" t="inlineStr">
+        <is>
+          <t>ROS机器人操作系统的安装、配置与初级教程</t>
+        </is>
+      </c>
+      <c r="C303" s="0" t="n">
+        <v>3765</v>
+      </c>
+      <c r="D303" s="0" t="n">
+        <v>23565</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="n">
+        <v>41932.65138888889</v>
+      </c>
+      <c r="B304" s="0" t="inlineStr">
+        <is>
+          <t>基于GO语言Revel框架和mgo的博客</t>
+        </is>
+      </c>
+      <c r="C304" s="0" t="n">
+        <v>3771</v>
+      </c>
+      <c r="D304" s="0" t="n">
+        <v>23769</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="n">
+        <v>41745.41944444443</v>
+      </c>
+      <c r="B305" s="0" t="inlineStr">
+        <is>
+          <t>Collabtive系统跨站脚本攻击实验</t>
+        </is>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>3798</v>
+      </c>
+      <c r="D305" s="0" t="n">
+        <v>24018</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="n">
+        <v>41578.6375</v>
+      </c>
+      <c r="B306" s="0" t="inlineStr">
+        <is>
+          <t>终端贪吃蛇</t>
+        </is>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>3828</v>
+      </c>
+      <c r="D306" s="0" t="n">
+        <v>25329</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="n">
+        <v>42484.56319444445</v>
+      </c>
+      <c r="B307" s="0" t="inlineStr">
+        <is>
+          <t>使用 Python 实现深度神经网络</t>
+        </is>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>3828</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="n">
+        <v>42296.46736111111</v>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
+        <is>
+          <t>基于TCP的python聊天程序</t>
+        </is>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>3855</v>
+      </c>
+      <c r="D308" s="0" t="n">
+        <v>26724</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="n">
+        <v>41709.58125</v>
+      </c>
+      <c r="B309" s="0" t="inlineStr">
+        <is>
+          <t>Go语言体验课</t>
+        </is>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>3882</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>26862</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="n">
+        <v>41953.48194444443</v>
+      </c>
+      <c r="B310" s="0" t="inlineStr">
+        <is>
+          <t>TensorFlow 入门教程</t>
+        </is>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>3966</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>27204</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="n">
+        <v>42218.69375</v>
+      </c>
+      <c r="B311" s="0" t="inlineStr">
+        <is>
+          <t>Shell 脚本实现 Linux 系统监控</t>
+        </is>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>3972</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>27876</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="n">
+        <v>41850.40277777778</v>
+      </c>
+      <c r="B312" s="0" t="inlineStr">
+        <is>
+          <t>轻松创建 Node.js 服务器</t>
+        </is>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>4071</v>
+      </c>
+      <c r="D312" s="0" t="n">
+        <v>28536</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="n">
+        <v>41717.40625</v>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
+        <is>
+          <t>格式化字符串漏洞实验</t>
+        </is>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>4104</v>
+      </c>
+      <c r="D313" s="0" t="n">
+        <v>28722</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="n">
+        <v>41680.54930555557</v>
+      </c>
+      <c r="B314" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现一个支持PHP的简易WEB服务器</t>
+        </is>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>4146</v>
+      </c>
+      <c r="D314" s="0" t="n">
+        <v>28734</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="n">
+        <v>42226.4625</v>
+      </c>
+      <c r="B315" s="0" t="inlineStr">
+        <is>
+          <t>基于 LeanCloud 的短信验证</t>
+        </is>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>4191</v>
+      </c>
+      <c r="D315" s="0" t="n">
+        <v>28905</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="n">
+        <v>42329.95416666667</v>
+      </c>
+      <c r="B316" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现linux pwd命令</t>
+        </is>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>4218</v>
+      </c>
+      <c r="D316" s="0" t="n">
+        <v>28917</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="n">
+        <v>42132.50555555556</v>
+      </c>
+      <c r="B317" s="0" t="inlineStr">
+        <is>
+          <t>1小时入门增强现实技术</t>
+        </is>
+      </c>
+      <c r="C317" s="0" t="n">
+        <v>4296</v>
+      </c>
+      <c r="D317" s="0" t="n">
+        <v>29502</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="n">
+        <v>42300.77013888889</v>
+      </c>
+      <c r="B318" s="0" t="inlineStr">
+        <is>
+          <t>Python3基于Scapy实现DDos</t>
+        </is>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>4323</v>
+      </c>
+      <c r="D318" s="0" t="n">
+        <v>29502</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="n">
+        <v>41711.42083333333</v>
+      </c>
+      <c r="B319" s="0" t="inlineStr">
+        <is>
+          <t>《Hadoop权威指南》配套实验</t>
+        </is>
+      </c>
+      <c r="C319" s="0" t="n">
+        <v>4332</v>
+      </c>
+      <c r="D319" s="0" t="n">
+        <v>29892</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="n">
+        <v>42009.45277777778</v>
+      </c>
+      <c r="B320" s="0" t="inlineStr">
+        <is>
+          <t>Go by Example 中文版</t>
+        </is>
+      </c>
+      <c r="C320" s="0" t="n">
+        <v>4413</v>
+      </c>
+      <c r="D320" s="0" t="n">
+        <v>29904</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="n">
+        <v>41829.74375</v>
+      </c>
+      <c r="B321" s="0" t="inlineStr">
+        <is>
+          <t>基于Flask/RethinkDB实现TODO List</t>
+        </is>
+      </c>
+      <c r="C321" s="0" t="n">
+        <v>4425</v>
+      </c>
+      <c r="D321" s="0" t="n">
+        <v>30153</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="n">
+        <v>42054.62291666667</v>
+      </c>
+      <c r="B322" s="0" t="inlineStr">
+        <is>
+          <t>深入学习《机器学习实战》</t>
+        </is>
+      </c>
+      <c r="C322" s="0" t="n">
+        <v>4446</v>
+      </c>
+      <c r="D322" s="0" t="n">
+        <v>30288</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="n">
+        <v>41531.64236111111</v>
+      </c>
+      <c r="B323" s="0" t="inlineStr">
+        <is>
+          <t>jQuery入门教程</t>
+        </is>
+      </c>
+      <c r="C323" s="0" t="n">
+        <v>4482</v>
+      </c>
+      <c r="D323" s="0" t="n">
+        <v>31119</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="n">
+        <v>42363.57361111111</v>
+      </c>
+      <c r="B324" s="0" t="inlineStr">
+        <is>
+          <t>大数据带你挖掘打车的秘籍</t>
+        </is>
+      </c>
+      <c r="C324" s="0" t="n">
+        <v>4578</v>
+      </c>
+      <c r="D324" s="0" t="n">
+        <v>31152</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="n">
+        <v>41674.57430555556</v>
+      </c>
+      <c r="B325" s="0" t="inlineStr">
+        <is>
+          <t>CentOS 6体验课</t>
+        </is>
+      </c>
+      <c r="C325" s="0" t="n">
+        <v>4719</v>
+      </c>
+      <c r="D325" s="0" t="n">
+        <v>31191</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="n">
+        <v>42205.45902777778</v>
+      </c>
+      <c r="B326" s="0" t="inlineStr">
+        <is>
+          <t>基于 Flask 及爬虫实现微信娱乐机器人</t>
+        </is>
+      </c>
+      <c r="C326" s="0" t="n">
+        <v>4782</v>
+      </c>
+      <c r="D326" s="0" t="n">
+        <v>31557</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="n">
+        <v>41765.01180555556</v>
+      </c>
+      <c r="B327" s="0" t="inlineStr">
+        <is>
+          <t>C语言利用epoll实现高并发聊天室</t>
+        </is>
+      </c>
+      <c r="C327" s="0" t="n">
+        <v>4827</v>
+      </c>
+      <c r="D327" s="0" t="n">
+        <v>31803</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="n">
+        <v>41788.65486111111</v>
+      </c>
+      <c r="B328" s="0" t="inlineStr">
+        <is>
+          <t>SSH 框架应用实例</t>
+        </is>
+      </c>
+      <c r="C328" s="0" t="n">
+        <v>4902</v>
+      </c>
+      <c r="D328" s="0" t="n">
+        <v>32895</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="n">
+        <v>42286.82708333333</v>
+      </c>
+      <c r="B329" s="0" t="inlineStr">
+        <is>
+          <t>Python实现简易局域网视频聊天工具</t>
+        </is>
+      </c>
+      <c r="C329" s="0" t="n">
+        <v>4920</v>
+      </c>
+      <c r="D329" s="0" t="n">
+        <v>32895</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="n">
+        <v>42160.03472222222</v>
+      </c>
+      <c r="B330" s="0" t="inlineStr">
+        <is>
+          <t>Python实现Python解释器</t>
+        </is>
+      </c>
+      <c r="C330" s="0" t="n">
+        <v>4923</v>
+      </c>
+      <c r="D330" s="0" t="n">
+        <v>33006</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="n">
+        <v>42359.43055555555</v>
+      </c>
+      <c r="B331" s="0" t="inlineStr">
+        <is>
+          <t>Laravel 5.1 基础教程</t>
+        </is>
+      </c>
+      <c r="C331" s="0" t="n">
+        <v>5067</v>
+      </c>
+      <c r="D331" s="0" t="n">
+        <v>33459</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="n">
+        <v>41660.5</v>
+      </c>
+      <c r="B332" s="0" t="inlineStr">
+        <is>
+          <t>Laravel实现用户注册登录</t>
+        </is>
+      </c>
+      <c r="C332" s="0" t="n">
+        <v>5109</v>
+      </c>
+      <c r="D332" s="0" t="n">
+        <v>33459</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="n">
+        <v>41660.62847222222</v>
+      </c>
+      <c r="B333" s="0" t="inlineStr">
+        <is>
+          <t>C语言编写万年历</t>
+        </is>
+      </c>
+      <c r="C333" s="0" t="n">
+        <v>5154</v>
+      </c>
+      <c r="D333" s="0" t="n">
+        <v>33519</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="n">
+        <v>41848.74791666667</v>
+      </c>
+      <c r="B334" s="0" t="inlineStr">
+        <is>
+          <t>Python科学计算(二)</t>
+        </is>
+      </c>
+      <c r="C334" s="0" t="n">
+        <v>5184</v>
+      </c>
+      <c r="D334" s="0" t="n">
+        <v>34056</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="n">
+        <v>42408.65902777778</v>
+      </c>
+      <c r="B335" s="0" t="inlineStr">
+        <is>
+          <t>Vuejs2.0 使用教程</t>
+        </is>
+      </c>
+      <c r="C335" s="0" t="n">
+        <v>5232</v>
+      </c>
+      <c r="D335" s="0" t="n">
+        <v>34350</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="n">
+        <v>42366.61666666667</v>
+      </c>
+      <c r="B336" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现英文新闻摘要自动提取</t>
+        </is>
+      </c>
+      <c r="C336" s="0" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D336" s="0" t="n">
+        <v>34425</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="n">
+        <v>42554.72638888889</v>
+      </c>
+      <c r="B337" s="0" t="inlineStr">
+        <is>
+          <t>Github 快速上手实战教程</t>
+        </is>
+      </c>
+      <c r="C337" s="0" t="n">
+        <v>5283</v>
+      </c>
+      <c r="D337" s="0" t="n">
+        <v>34530</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="n">
+        <v>42355.27361111111</v>
+      </c>
+      <c r="B338" s="0" t="inlineStr">
+        <is>
+          <t>Linux多线程编程入门指南</t>
+        </is>
+      </c>
+      <c r="C338" s="0" t="n">
+        <v>5286</v>
+      </c>
+      <c r="D338" s="0" t="n">
+        <v>35454</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="n">
+        <v>42226.54583333333</v>
+      </c>
+      <c r="B339" s="0" t="inlineStr">
+        <is>
+          <t>深入浅出 Swift 3</t>
+        </is>
+      </c>
+      <c r="C339" s="0" t="n">
+        <v>5304</v>
+      </c>
+      <c r="D339" s="0" t="n">
+        <v>35724</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="n">
+        <v>41862.59583333333</v>
+      </c>
+      <c r="B340" s="0" t="inlineStr">
+        <is>
+          <t>每天一个PythonChallenge《任务二》</t>
+        </is>
+      </c>
+      <c r="C340" s="0" t="n">
+        <v>5343</v>
+      </c>
+      <c r="D340" s="0" t="n">
+        <v>36177</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="n">
+        <v>41715.43125</v>
+      </c>
+      <c r="B341" s="0" t="inlineStr">
+        <is>
+          <t>SET-UID程序漏洞实验</t>
+        </is>
+      </c>
+      <c r="C341" s="0" t="n">
+        <v>5358</v>
+      </c>
+      <c r="D341" s="0" t="n">
+        <v>36339</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="n">
+        <v>42323.39652777778</v>
+      </c>
+      <c r="B342" s="0" t="inlineStr">
+        <is>
+          <t>Java 编写数独计算器</t>
+        </is>
+      </c>
+      <c r="C342" s="0" t="n">
+        <v>5364</v>
+      </c>
+      <c r="D342" s="0" t="n">
+        <v>36645</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="n">
+        <v>41749.41666666666</v>
+      </c>
+      <c r="B343" s="0" t="inlineStr">
+        <is>
+          <t>Collabtive系统SQL注入实验</t>
+        </is>
+      </c>
+      <c r="C343" s="0" t="n">
+        <v>5382</v>
+      </c>
+      <c r="D343" s="0" t="n">
+        <v>36915</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="n">
+        <v>42226.40208333332</v>
+      </c>
+      <c r="B344" s="0" t="inlineStr">
+        <is>
+          <t>PHP 实现简单的 MVC 框架</t>
+        </is>
+      </c>
+      <c r="C344" s="0" t="n">
+        <v>5415</v>
+      </c>
+      <c r="D344" s="0" t="n">
+        <v>37095</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="n">
+        <v>41911.49444444444</v>
+      </c>
+      <c r="B345" s="0" t="inlineStr">
+        <is>
+          <t>PHP会话控制</t>
+        </is>
+      </c>
+      <c r="C345" s="0" t="n">
+        <v>5421</v>
+      </c>
+      <c r="D345" s="0" t="n">
+        <v>37392</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="n">
+        <v>42332.56597222222</v>
+      </c>
+      <c r="B346" s="0" t="inlineStr">
+        <is>
+          <t>ebay在线拍卖数据分析</t>
+        </is>
+      </c>
+      <c r="C346" s="0" t="n">
+        <v>5463</v>
+      </c>
+      <c r="D346" s="0" t="n">
+        <v>38304</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="n">
+        <v>42465.65277777778</v>
+      </c>
+      <c r="B347" s="0" t="inlineStr">
+        <is>
+          <t>Django 进阶教程</t>
+        </is>
+      </c>
+      <c r="C347" s="0" t="n">
+        <v>5685</v>
+      </c>
+      <c r="D347" s="0" t="n">
+        <v>38595</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="n">
+        <v>41767.57291666666</v>
+      </c>
+      <c r="B348" s="0" t="inlineStr">
+        <is>
+          <t>校花评比排名项目-PHP</t>
+        </is>
+      </c>
+      <c r="C348" s="0" t="n">
+        <v>5796</v>
+      </c>
+      <c r="D348" s="0" t="n">
+        <v>38667</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="n">
+        <v>42322.84722222222</v>
+      </c>
+      <c r="B349" s="0" t="inlineStr">
+        <is>
+          <t>手把手教你实现 Google 拓展插件</t>
+        </is>
+      </c>
+      <c r="C349" s="0" t="n">
+        <v>5874</v>
+      </c>
+      <c r="D349" s="0" t="n">
+        <v>38775</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="n">
+        <v>41871.44166666668</v>
+      </c>
+      <c r="B350" s="0" t="inlineStr">
+        <is>
+          <t>Android Studio项目创建和模拟器配置</t>
+        </is>
+      </c>
+      <c r="C350" s="0" t="n">
+        <v>5976</v>
+      </c>
+      <c r="D350" s="0" t="n">
+        <v>39081</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="n">
+        <v>41666.41805555556</v>
+      </c>
+      <c r="B351" s="0" t="inlineStr">
+        <is>
+          <t>基于 HTML5 实现刮刮乐效果</t>
+        </is>
+      </c>
+      <c r="C351" s="0" t="n">
+        <v>6042</v>
+      </c>
+      <c r="D351" s="0" t="n">
+        <v>41361</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="n">
+        <v>41757.525</v>
+      </c>
+      <c r="B352" s="0" t="inlineStr">
+        <is>
+          <t>C语言实现ping程序</t>
+        </is>
+      </c>
+      <c r="C352" s="0" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D352" s="0" t="n">
+        <v>41484</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="n">
+        <v>41674.59236111111</v>
+      </c>
+      <c r="B353" s="0" t="inlineStr">
+        <is>
+          <t>CentOS 7体验课</t>
+        </is>
+      </c>
+      <c r="C353" s="0" t="n">
+        <v>6171</v>
+      </c>
+      <c r="D353" s="0" t="n">
+        <v>42267</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="n">
+        <v>41556.70902777778</v>
+      </c>
+      <c r="B354" s="0" t="inlineStr">
+        <is>
+          <t>HBASE教程</t>
+        </is>
+      </c>
+      <c r="C354" s="0" t="n">
+        <v>6426</v>
+      </c>
+      <c r="D354" s="0" t="n">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="n">
+        <v>41658.55</v>
+      </c>
+      <c r="B355" s="0" t="inlineStr">
+        <is>
+          <t>C语言版扫雷游戏</t>
+        </is>
+      </c>
+      <c r="C355" s="0" t="n">
+        <v>6504</v>
+      </c>
+      <c r="D355" s="0" t="n">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="n">
+        <v>42303.46180555555</v>
+      </c>
+      <c r="B356" s="0" t="inlineStr">
+        <is>
+          <t>利用微信API将你的微信变为聊天机器人</t>
+        </is>
+      </c>
+      <c r="C356" s="0" t="n">
+        <v>6585</v>
+      </c>
+      <c r="D356" s="0" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="n">
+        <v>42387.60833333333</v>
+      </c>
+      <c r="B357" s="0" t="inlineStr">
+        <is>
+          <t>3个C语言实例带你掌握递归方法论</t>
+        </is>
+      </c>
+      <c r="C357" s="0" t="n">
+        <v>6819</v>
+      </c>
+      <c r="D357" s="0" t="n">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="n">
+        <v>41681.53333333333</v>
+      </c>
+      <c r="B358" s="0" t="inlineStr">
+        <is>
+          <t>《C++入门经典（第5版·修订版）》配套实验</t>
+        </is>
+      </c>
+      <c r="C358" s="0" t="n">
+        <v>6855</v>
+      </c>
+      <c r="D358" s="0" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="n">
+        <v>41681.62777777778</v>
+      </c>
+      <c r="B359" s="0" t="inlineStr">
+        <is>
+          <t>《Python入门经典》配套实验</t>
+        </is>
+      </c>
+      <c r="C359" s="0" t="n">
+        <v>6891</v>
+      </c>
+      <c r="D359" s="0" t="n">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="n">
+        <v>41659.76319444443</v>
+      </c>
+      <c r="B360" s="0" t="inlineStr">
+        <is>
+          <t>Laravel大型项目系列教程</t>
+        </is>
+      </c>
+      <c r="C360" s="0" t="n">
+        <v>6972</v>
+      </c>
+      <c r="D360" s="0" t="n">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="n">
+        <v>42329.57291666666</v>
+      </c>
+      <c r="B361" s="0" t="inlineStr">
+        <is>
+          <t>Python 3 实现 Markdown 解析器</t>
+        </is>
+      </c>
+      <c r="C361" s="0" t="n">
+        <v>7116</v>
+      </c>
+      <c r="D361" s="0" t="n">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="n">
+        <v>42230.93402777778</v>
+      </c>
+      <c r="B362" s="0" t="inlineStr">
+        <is>
+          <t>Python实现键值数据库</t>
+        </is>
+      </c>
+      <c r="C362" s="0" t="n">
+        <v>7149</v>
+      </c>
+      <c r="D362" s="0" t="n">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="n">
+        <v>42114.40694444445</v>
+      </c>
+      <c r="B363" s="0" t="inlineStr">
+        <is>
+          <t>Java 8 新特性指南</t>
+        </is>
+      </c>
+      <c r="C363" s="0" t="n">
+        <v>7227</v>
+      </c>
+      <c r="D363" s="0" t="n">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="n">
+        <v>41738.58333333334</v>
+      </c>
+      <c r="B364" s="0" t="inlineStr">
+        <is>
+          <t>PHP实现转盘抽奖</t>
+        </is>
+      </c>
+      <c r="C364" s="0" t="n">
+        <v>7335</v>
+      </c>
+      <c r="D364" s="0" t="n">
+        <v>47664</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="n">
+        <v>41479.59652777778</v>
+      </c>
+      <c r="B365" s="0" t="inlineStr">
+        <is>
+          <t>Ruby基础教程</t>
+        </is>
+      </c>
+      <c r="C365" s="0" t="n">
+        <v>7416</v>
+      </c>
+      <c r="D365" s="0" t="n">
+        <v>49869</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="n">
+        <v>42308.67361111111</v>
+      </c>
+      <c r="B366" s="0" t="inlineStr">
+        <is>
+          <t>川普撞脸希拉里(基于 OpenCV 的面部特征交换)</t>
+        </is>
+      </c>
+      <c r="C366" s="0" t="n">
+        <v>7473</v>
+      </c>
+      <c r="D366" s="0" t="n">
+        <v>49935</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="3" t="n">
+        <v>41864.41041666668</v>
+      </c>
+      <c r="B367" s="0" t="inlineStr">
+        <is>
+          <t>每天一个PythonChallenge《任务三》</t>
+        </is>
+      </c>
+      <c r="C367" s="0" t="n">
+        <v>7488</v>
+      </c>
+      <c r="D367" s="0" t="n">
+        <v>50178</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3" t="n">
+        <v>41674.59305555555</v>
+      </c>
+      <c r="B368" s="0" t="inlineStr">
+        <is>
+          <t>Ubuntu桌面体验课</t>
+        </is>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>7491</v>
+      </c>
+      <c r="D368" s="0" t="n">
+        <v>50451</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="3" t="n">
+        <v>41756.78055555555</v>
+      </c>
+      <c r="B369" s="0" t="inlineStr">
+        <is>
+          <t>基于 Python 的文件备份</t>
+        </is>
+      </c>
+      <c r="C369" s="0" t="n">
+        <v>7506</v>
+      </c>
+      <c r="D369" s="0" t="n">
+        <v>50922</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="3" t="n">
+        <v>42235.67847222222</v>
+      </c>
+      <c r="B370" s="0" t="inlineStr">
+        <is>
+          <t>Linux系统安装配置VPN服务器</t>
+        </is>
+      </c>
+      <c r="C370" s="0" t="n">
+        <v>7767</v>
+      </c>
+      <c r="D370" s="0" t="n">
+        <v>51273</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="3" t="n">
+        <v>42319.57361111111</v>
+      </c>
+      <c r="B371" s="0" t="inlineStr">
+        <is>
+          <t>16个PHP设计模式详解</t>
+        </is>
+      </c>
+      <c r="C371" s="0" t="n">
+        <v>7893</v>
+      </c>
+      <c r="D371" s="0" t="n">
+        <v>51897</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="3" t="n">
+        <v>42031.73402777778</v>
+      </c>
+      <c r="B372" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现端口扫描器</t>
+        </is>
+      </c>
+      <c r="C372" s="0" t="n">
+        <v>8076</v>
+      </c>
+      <c r="D372" s="0" t="n">
+        <v>52071</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="3" t="n">
+        <v>41556.70902777778</v>
+      </c>
+      <c r="B373" s="0" t="inlineStr">
+        <is>
+          <t>HIVE教程</t>
+        </is>
+      </c>
+      <c r="C373" s="0" t="n">
+        <v>8163</v>
+      </c>
+      <c r="D373" s="0" t="n">
+        <v>52380</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="3" t="n">
+        <v>41758.43333333332</v>
+      </c>
+      <c r="B374" s="0" t="inlineStr">
+        <is>
+          <t>网页版别踩白块游戏</t>
+        </is>
+      </c>
+      <c r="C374" s="0" t="n">
+        <v>8205</v>
+      </c>
+      <c r="D374" s="0" t="n">
+        <v>52443</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3" t="n">
+        <v>41847.47430555556</v>
+      </c>
+      <c r="B375" s="0" t="inlineStr">
+        <is>
+          <t>120行代码实现简单的即时搜索</t>
+        </is>
+      </c>
+      <c r="C375" s="0" t="n">
+        <v>8280</v>
+      </c>
+      <c r="D375" s="0" t="n">
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="3" t="n">
+        <v>42245.54236111111</v>
+      </c>
+      <c r="B376" s="0" t="inlineStr">
+        <is>
+          <t>基于 Flask 与 MySQL 实现番剧推荐系统</t>
+        </is>
+      </c>
+      <c r="C376" s="0" t="n">
+        <v>8415</v>
+      </c>
+      <c r="D376" s="0" t="n">
+        <v>52833</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="3" t="n">
+        <v>42204.71180555555</v>
+      </c>
+      <c r="B377" s="0" t="inlineStr">
+        <is>
+          <t>使用 Python 3 编写系列实用脚本</t>
+        </is>
+      </c>
+      <c r="C377" s="0" t="n">
+        <v>8421</v>
+      </c>
+      <c r="D377" s="0" t="n">
+        <v>53001</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="3" t="n">
+        <v>41669.43819444445</v>
+      </c>
+      <c r="B378" s="0" t="inlineStr">
+        <is>
+          <t>C语言版flappy_bird</t>
+        </is>
+      </c>
+      <c r="C378" s="0" t="n">
+        <v>8433</v>
+      </c>
+      <c r="D378" s="0" t="n">
+        <v>53013</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="3" t="n">
+        <v>42435.69861111111</v>
+      </c>
+      <c r="B379" s="0" t="inlineStr">
+        <is>
+          <t>k-近邻算法实现手写数字识别系统--《机器学习实战 》</t>
+        </is>
+      </c>
+      <c r="C379" s="0" t="n">
+        <v>8442</v>
+      </c>
+      <c r="D379" s="0" t="n">
+        <v>54891</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="3" t="n">
+        <v>42286.81319444445</v>
+      </c>
+      <c r="B380" s="0" t="inlineStr">
+        <is>
+          <t>C++基于OpenCV实现实时监控和运动检测记录</t>
+        </is>
+      </c>
+      <c r="C380" s="0" t="n">
+        <v>8628</v>
+      </c>
+      <c r="D380" s="0" t="n">
+        <v>55311</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="3" t="n">
+        <v>42286.71736111111</v>
+      </c>
+      <c r="B381" s="0" t="inlineStr">
+        <is>
+          <t>用 C语言编写自己的编程语言</t>
+        </is>
+      </c>
+      <c r="C381" s="0" t="n">
+        <v>8649</v>
+      </c>
+      <c r="D381" s="0" t="n">
+        <v>55344</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="3" t="n">
+        <v>42217.96111111111</v>
+      </c>
+      <c r="B382" s="0" t="inlineStr">
+        <is>
+          <t>Python3 实现淘女郎照片爬虫</t>
+        </is>
+      </c>
+      <c r="C382" s="0" t="n">
+        <v>8712</v>
+      </c>
+      <c r="D382" s="0" t="n">
+        <v>55863</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="3" t="n">
+        <v>42428.6625</v>
+      </c>
+      <c r="B383" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现康威生命游戏</t>
+        </is>
+      </c>
+      <c r="C383" s="0" t="n">
+        <v>8712</v>
+      </c>
+      <c r="D383" s="0" t="n">
+        <v>56670</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="3" t="n">
+        <v>42343.72083333333</v>
+      </c>
+      <c r="B384" s="0" t="inlineStr">
+        <is>
+          <t>Python3实现简单的FTP认证服务器</t>
+        </is>
+      </c>
+      <c r="C384" s="0" t="n">
+        <v>8715</v>
+      </c>
+      <c r="D384" s="0" t="n">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="3" t="n">
+        <v>41729.44166666668</v>
+      </c>
+      <c r="B385" s="0" t="inlineStr">
+        <is>
+          <t>密钥加解密实验</t>
+        </is>
+      </c>
+      <c r="C385" s="0" t="n">
+        <v>8790</v>
+      </c>
+      <c r="D385" s="0" t="n">
+        <v>59640</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="3" t="n">
+        <v>41675.45555555557</v>
+      </c>
+      <c r="B386" s="0" t="inlineStr">
+        <is>
+          <t>PHP 实现留言本</t>
+        </is>
+      </c>
+      <c r="C386" s="0" t="n">
+        <v>8838</v>
+      </c>
+      <c r="D386" s="0" t="n">
+        <v>59985</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="3" t="n">
+        <v>42438.65833333333</v>
+      </c>
+      <c r="B387" s="0" t="inlineStr">
+        <is>
+          <t>Python 气象数据分析 -- 《Python 数据分析实战》</t>
+        </is>
+      </c>
+      <c r="C387" s="0" t="n">
+        <v>9018</v>
+      </c>
+      <c r="D387" s="0" t="n">
+        <v>62061</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="3" t="n">
+        <v>42186.64791666667</v>
+      </c>
+      <c r="B388" s="0" t="inlineStr">
+        <is>
+          <t>C++ 开发 Web 服务框架</t>
+        </is>
+      </c>
+      <c r="C388" s="0" t="n">
+        <v>9078</v>
+      </c>
+      <c r="D388" s="0" t="n">
+        <v>62943</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="3" t="n">
+        <v>42343.40694444445</v>
+      </c>
+      <c r="B389" s="0" t="inlineStr">
+        <is>
+          <t>SQLAlchemy 基础教程</t>
+        </is>
+      </c>
+      <c r="C389" s="0" t="n">
+        <v>9249</v>
+      </c>
+      <c r="D389" s="0" t="n">
+        <v>63216</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="3" t="n">
+        <v>41692.54791666667</v>
+      </c>
+      <c r="B390" s="0" t="inlineStr">
+        <is>
+          <t>实用Linux Shell编程</t>
+        </is>
+      </c>
+      <c r="C390" s="0" t="n">
+        <v>9513</v>
+      </c>
+      <c r="D390" s="0" t="n">
+        <v>63243</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="3" t="n">
+        <v>42247.39861111111</v>
+      </c>
+      <c r="B391" s="0" t="inlineStr">
+        <is>
+          <t>Python3 &amp; OpenCV 视频转字符动画</t>
+        </is>
+      </c>
+      <c r="C391" s="0" t="n">
+        <v>10233</v>
+      </c>
+      <c r="D391" s="0" t="n">
+        <v>64599</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="3" t="n">
+        <v>42024.57361111111</v>
+      </c>
+      <c r="B392" s="0" t="inlineStr">
+        <is>
+          <t>Scala开发教程</t>
+        </is>
+      </c>
+      <c r="C392" s="0" t="n">
+        <v>10461</v>
+      </c>
+      <c r="D392" s="0" t="n">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="3" t="n">
+        <v>41710.71597222222</v>
+      </c>
+      <c r="B393" s="0" t="inlineStr">
+        <is>
+          <t>操作系统实验－基于uCore OS</t>
+        </is>
+      </c>
+      <c r="C393" s="0" t="n">
+        <v>10470</v>
+      </c>
+      <c r="D393" s="0" t="n">
+        <v>66540</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3" t="n">
+        <v>41746.29097222222</v>
+      </c>
+      <c r="B394" s="0" t="inlineStr">
+        <is>
+          <t>自己的Java编辑器</t>
+        </is>
+      </c>
+      <c r="C394" s="0" t="n">
+        <v>10701</v>
+      </c>
+      <c r="D394" s="0" t="n">
+        <v>67992</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="3" t="n">
+        <v>42224.45138888889</v>
+      </c>
+      <c r="B395" s="0" t="inlineStr">
+        <is>
+          <t>C++11/14 高速上手教程</t>
+        </is>
+      </c>
+      <c r="C395" s="0" t="n">
+        <v>10863</v>
+      </c>
+      <c r="D395" s="0" t="n">
+        <v>68535</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="3" t="n">
+        <v>42325.66388888889</v>
+      </c>
+      <c r="B396" s="0" t="inlineStr">
+        <is>
+          <t>神经网络实现人脸识别任务</t>
+        </is>
+      </c>
+      <c r="C396" s="0" t="n">
+        <v>10896</v>
+      </c>
+      <c r="D396" s="0" t="n">
+        <v>69975</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="3" t="n">
+        <v>41609.45763888889</v>
+      </c>
+      <c r="B397" s="0" t="inlineStr">
+        <is>
+          <t>Python文本解析器</t>
+        </is>
+      </c>
+      <c r="C397" s="0" t="n">
+        <v>11469</v>
+      </c>
+      <c r="D397" s="0" t="n">
+        <v>70137</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="3" t="n">
+        <v>42171.48541666667</v>
+      </c>
+      <c r="B398" s="0" t="inlineStr">
+        <is>
+          <t>Python实现3D建模工具</t>
+        </is>
+      </c>
+      <c r="C398" s="0" t="n">
+        <v>11895</v>
+      </c>
+      <c r="D398" s="0" t="n">
+        <v>71043</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="3" t="n">
+        <v>42288.38541666666</v>
+      </c>
+      <c r="B399" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现简单画板</t>
+        </is>
+      </c>
+      <c r="C399" s="0" t="n">
+        <v>11904</v>
+      </c>
+      <c r="D399" s="0" t="n">
+        <v>72129</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="3" t="n">
+        <v>41588.66944444443</v>
+      </c>
+      <c r="B400" s="0" t="inlineStr">
+        <is>
+          <t>结合七牛搭建个人相册</t>
+        </is>
+      </c>
+      <c r="C400" s="0" t="n">
+        <v>12117</v>
+      </c>
+      <c r="D400" s="0" t="n">
+        <v>72330</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="3" t="n">
+        <v>41674.47361111111</v>
+      </c>
+      <c r="B401" s="0" t="inlineStr">
+        <is>
+          <t>网页版拼图游戏</t>
+        </is>
+      </c>
+      <c r="C401" s="0" t="n">
+        <v>12324</v>
+      </c>
+      <c r="D401" s="0" t="n">
+        <v>73161</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="3" t="n">
+        <v>41760.87916666668</v>
+      </c>
+      <c r="B402" s="0" t="inlineStr">
+        <is>
+          <t>C语言快速实现五子棋</t>
+        </is>
+      </c>
+      <c r="C402" s="0" t="n">
+        <v>12705</v>
+      </c>
+      <c r="D402" s="0" t="n">
+        <v>73443</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="3" t="n">
+        <v>41577.55763888889</v>
+      </c>
+      <c r="B403" s="0" t="inlineStr">
+        <is>
+          <t>《C++语言程序设计（第4版）》配套实验</t>
+        </is>
+      </c>
+      <c r="C403" s="0" t="n">
+        <v>12750</v>
+      </c>
+      <c r="D403" s="0" t="n">
+        <v>75939</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="3" t="n">
+        <v>42029.47083333333</v>
+      </c>
+      <c r="B404" s="0" t="inlineStr">
+        <is>
+          <t>Node.js包教不包会</t>
+        </is>
+      </c>
+      <c r="C404" s="0" t="n">
+        <v>13023</v>
+      </c>
+      <c r="D404" s="0" t="n">
+        <v>75939</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="3" t="n">
+        <v>41658.58541666667</v>
+      </c>
+      <c r="B405" s="0" t="inlineStr">
+        <is>
+          <t>软件工程(C编码实践篇)</t>
+        </is>
+      </c>
+      <c r="C405" s="0" t="n">
+        <v>13065</v>
+      </c>
+      <c r="D405" s="0" t="n">
+        <v>76353</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="3" t="n">
+        <v>42441.89236111111</v>
+      </c>
+      <c r="B406" s="0" t="inlineStr">
+        <is>
+          <t>NBA常规赛结果预测——利用Python进行比赛数据分析</t>
+        </is>
+      </c>
+      <c r="C406" s="0" t="n">
+        <v>13116</v>
+      </c>
+      <c r="D406" s="0" t="n">
+        <v>76566</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="3" t="n">
+        <v>41673.40486111111</v>
+      </c>
+      <c r="B407" s="0" t="inlineStr">
+        <is>
+          <t>Java实现记事本</t>
+        </is>
+      </c>
+      <c r="C407" s="0" t="n">
+        <v>13398</v>
+      </c>
+      <c r="D407" s="0" t="n">
+        <v>83757</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="3" t="n">
+        <v>41632.6125</v>
+      </c>
+      <c r="B408" s="0" t="inlineStr">
+        <is>
+          <t>LAMP部署及配置</t>
+        </is>
+      </c>
+      <c r="C408" s="0" t="n">
+        <v>13584</v>
+      </c>
+      <c r="D408" s="0" t="n">
+        <v>87396</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="3" t="n">
+        <v>42323.77569444444</v>
+      </c>
+      <c r="B409" s="0" t="inlineStr">
+        <is>
+          <t>Java 实现微信红包分配算法</t>
+        </is>
+      </c>
+      <c r="C409" s="0" t="n">
+        <v>13599</v>
+      </c>
+      <c r="D409" s="0" t="n">
+        <v>90054</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="3" t="n">
+        <v>41623.72777777778</v>
+      </c>
+      <c r="B410" s="0" t="inlineStr">
+        <is>
+          <t>《汇编语言（第2版）》配套实验</t>
+        </is>
+      </c>
+      <c r="C410" s="0" t="n">
+        <v>13650</v>
+      </c>
+      <c r="D410" s="0" t="n">
+        <v>92244</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="3" t="n">
+        <v>42216.89375</v>
+      </c>
+      <c r="B411" s="0" t="inlineStr">
+        <is>
+          <t>神经网络实现手写字符识别系统</t>
+        </is>
+      </c>
+      <c r="C411" s="0" t="n">
+        <v>13878</v>
+      </c>
+      <c r="D411" s="0" t="n">
+        <v>93945</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3" t="n">
+        <v>41584.57430555556</v>
+      </c>
+      <c r="B412" s="0" t="inlineStr">
+        <is>
+          <t>jQuery基础入门</t>
+        </is>
+      </c>
+      <c r="C412" s="0" t="n">
+        <v>13911</v>
+      </c>
+      <c r="D412" s="0" t="n">
+        <v>96183</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="3" t="n">
+        <v>41890.42916666667</v>
+      </c>
+      <c r="B413" s="0" t="inlineStr">
+        <is>
+          <t>用Python做2048游戏</t>
+        </is>
+      </c>
+      <c r="C413" s="0" t="n">
+        <v>13953</v>
+      </c>
+      <c r="D413" s="0" t="n">
+        <v>97740</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="3" t="n">
+        <v>41772.61458333334</v>
+      </c>
+      <c r="B414" s="0" t="inlineStr">
+        <is>
+          <t>纯 CSS 打造网页版「大白」</t>
+        </is>
+      </c>
+      <c r="C414" s="0" t="n">
+        <v>14127</v>
+      </c>
+      <c r="D414" s="0" t="n">
+        <v>98808</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="3" t="n">
+        <v>41632.61388888889</v>
+      </c>
+      <c r="B415" s="0" t="inlineStr">
+        <is>
+          <t>ThinkPHP框架实践</t>
+        </is>
+      </c>
+      <c r="C415" s="0" t="n">
+        <v>14166</v>
+      </c>
+      <c r="D415" s="0" t="n">
+        <v>99480</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="3" t="n">
+        <v>41835.62361111111</v>
+      </c>
+      <c r="B416" s="0" t="inlineStr">
+        <is>
+          <t>基于 HTML5 实现本地图片裁剪</t>
+        </is>
+      </c>
+      <c r="C416" s="0" t="n">
+        <v>14352</v>
+      </c>
+      <c r="D416" s="0" t="n">
+        <v>99684</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="3" t="n">
+        <v>41556.70833333334</v>
+      </c>
+      <c r="B417" s="0" t="inlineStr">
+        <is>
+          <t>Hibernate框架教程</t>
+        </is>
+      </c>
+      <c r="C417" s="0" t="n">
+        <v>14493</v>
+      </c>
+      <c r="D417" s="0" t="n">
+        <v>99777</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="3" t="n">
+        <v>42432.65416666667</v>
+      </c>
+      <c r="B418" s="0" t="inlineStr">
+        <is>
+          <t>Django 入门教程</t>
+        </is>
+      </c>
+      <c r="C418" s="0" t="n">
+        <v>14541</v>
+      </c>
+      <c r="D418" s="0" t="n">
+        <v>100152</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="3" t="n">
+        <v>42323.43055555555</v>
+      </c>
+      <c r="B419" s="0" t="inlineStr">
+        <is>
+          <t>PyQt 实现简易浏览器</t>
+        </is>
+      </c>
+      <c r="C419" s="0" t="n">
+        <v>14850</v>
+      </c>
+      <c r="D419" s="0" t="n">
+        <v>102273</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="3" t="n">
+        <v>42238.50486111111</v>
+      </c>
+      <c r="B420" s="0" t="inlineStr">
+        <is>
+          <t>在Github Pages上部署自己的简历</t>
+        </is>
+      </c>
+      <c r="C420" s="0" t="n">
+        <v>15171</v>
+      </c>
+      <c r="D420" s="0" t="n">
+        <v>110742</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="3" t="n">
+        <v>42351.43819444445</v>
+      </c>
+      <c r="B421" s="0" t="inlineStr">
+        <is>
+          <t>使用 Python 解数学方程</t>
+        </is>
+      </c>
+      <c r="C421" s="0" t="n">
+        <v>15246</v>
+      </c>
+      <c r="D421" s="0" t="n">
+        <v>122559</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="3" t="n">
+        <v>41632.68958333333</v>
+      </c>
+      <c r="B422" s="0" t="inlineStr">
+        <is>
+          <t>JDBC 入门教程</t>
+        </is>
+      </c>
+      <c r="C422" s="0" t="n">
+        <v>15402</v>
+      </c>
+      <c r="D422" s="0" t="n">
+        <v>123483</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="3" t="n">
+        <v>42265.84236111111</v>
+      </c>
+      <c r="B423" s="0" t="inlineStr">
+        <is>
+          <t>Python暴力猜解Web登录</t>
+        </is>
+      </c>
+      <c r="C423" s="0" t="n">
+        <v>15540</v>
+      </c>
+      <c r="D423" s="0" t="n">
+        <v>132069</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="3" t="n">
+        <v>41677.61666666667</v>
+      </c>
+      <c r="B424" s="0" t="inlineStr">
+        <is>
+          <t>Java开发简单的计算器</t>
+        </is>
+      </c>
+      <c r="C424" s="0" t="n">
+        <v>15555</v>
+      </c>
+      <c r="D424" s="0" t="n">
+        <v>132558</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="3" t="n">
+        <v>41533.43958333333</v>
+      </c>
+      <c r="B425" s="0" t="inlineStr">
+        <is>
+          <t>Linux系统编程</t>
+        </is>
+      </c>
+      <c r="C425" s="0" t="n">
+        <v>15648</v>
+      </c>
+      <c r="D425" s="0" t="n">
+        <v>136389</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="3" t="n">
+        <v>42252.42152777778</v>
+      </c>
+      <c r="B426" s="0" t="inlineStr">
+        <is>
+          <t>Python 实现简易 Shell</t>
+        </is>
+      </c>
+      <c r="C426" s="0" t="n">
+        <v>15801</v>
+      </c>
+      <c r="D426" s="0" t="n">
+        <v>136959</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="3" t="n">
+        <v>41632.60902777778</v>
+      </c>
+      <c r="B427" s="0" t="inlineStr">
+        <is>
+          <t>Linux系统监控实战</t>
+        </is>
+      </c>
+      <c r="C427" s="0" t="n">
+        <v>15828</v>
+      </c>
+      <c r="D427" s="0" t="n">
+        <v>139728</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="3" t="n">
+        <v>42255.61944444444</v>
+      </c>
+      <c r="B428" s="0" t="inlineStr">
+        <is>
+          <t>Python3 图片隐写术</t>
+        </is>
+      </c>
+      <c r="C428" s="0" t="n">
+        <v>15831</v>
+      </c>
+      <c r="D428" s="0" t="n">
+        <v>147138</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="n">
+        <v>41834.70277777778</v>
+      </c>
+      <c r="B429" s="0" t="inlineStr">
+        <is>
+          <t>基于HTML5 Canvas实现小游戏</t>
+        </is>
+      </c>
+      <c r="C429" s="0" t="n">
+        <v>16515</v>
+      </c>
+      <c r="D429" s="0" t="n">
+        <v>149556</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="3" t="n">
+        <v>41556.70763888889</v>
+      </c>
+      <c r="B430" s="0" t="inlineStr">
+        <is>
+          <t>Struts框架教程</t>
+        </is>
+      </c>
+      <c r="C430" s="0" t="n">
+        <v>16869</v>
+      </c>
+      <c r="D430" s="0" t="n">
+        <v>149715</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="3" t="n">
+        <v>41631.47222222222</v>
+      </c>
+      <c r="B431" s="0" t="inlineStr">
+        <is>
+          <t>Android应用开发基础</t>
+        </is>
+      </c>
+      <c r="C431" s="0" t="n">
+        <v>17337</v>
+      </c>
+      <c r="D431" s="0" t="n">
+        <v>156858</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="3" t="n">
+        <v>42162.68819444445</v>
+      </c>
+      <c r="B432" s="0" t="inlineStr">
+        <is>
+          <t>C++ 实现太阳系行星系统</t>
+        </is>
+      </c>
+      <c r="C432" s="0" t="n">
+        <v>17961</v>
+      </c>
+      <c r="D432" s="0" t="n">
+        <v>158184</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="3" t="n">
+        <v>41584.54305555556</v>
+      </c>
+      <c r="B433" s="0" t="inlineStr">
+        <is>
+          <t>Bootstrap3.0入门学习</t>
+        </is>
+      </c>
+      <c r="C433" s="0" t="n">
+        <v>18540</v>
+      </c>
+      <c r="D433" s="0" t="n">
+        <v>159663</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3" t="n">
+        <v>41718.75972222222</v>
+      </c>
+      <c r="B434" s="0" t="inlineStr">
+        <is>
+          <t>ShellShock 攻击实验</t>
+        </is>
+      </c>
+      <c r="C434" s="0" t="n">
+        <v>18588</v>
+      </c>
+      <c r="D434" s="0" t="n">
+        <v>165741</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3" t="n">
+        <v>42203.56041666667</v>
+      </c>
+      <c r="B435" s="0" t="inlineStr">
+        <is>
+          <t>Spring框架入门教程（新版）</t>
+        </is>
+      </c>
+      <c r="C435" s="0" t="n">
+        <v>18669</v>
+      </c>
+      <c r="D435" s="0" t="n">
+        <v>170535</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3" t="n">
+        <v>41556.70833333334</v>
+      </c>
+      <c r="B436" s="0" t="inlineStr">
+        <is>
+          <t>Hadoop部署及管理</t>
+        </is>
+      </c>
+      <c r="C436" s="0" t="n">
+        <v>19050</v>
+      </c>
+      <c r="D436" s="0" t="n">
+        <v>170739</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3" t="n">
+        <v>41632.68888888889</v>
+      </c>
+      <c r="B437" s="0" t="inlineStr">
+        <is>
+          <t>JDK 核心 API</t>
+        </is>
+      </c>
+      <c r="C437" s="0" t="n">
+        <v>19110</v>
+      </c>
+      <c r="D437" s="0" t="n">
+        <v>181170</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3" t="n">
+        <v>41632.6125</v>
+      </c>
+      <c r="B438" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linux Web运维（Nginx）实战 </t>
+        </is>
+      </c>
+      <c r="C438" s="0" t="n">
+        <v>19191</v>
+      </c>
+      <c r="D438" s="0" t="n">
+        <v>201855</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3" t="n">
+        <v>41632.65138888889</v>
+      </c>
+      <c r="B439" s="0" t="inlineStr">
+        <is>
+          <t>Redis基础教程</t>
+        </is>
+      </c>
+      <c r="C439" s="0" t="n">
+        <v>19761</v>
+      </c>
+      <c r="D439" s="0" t="n">
+        <v>207039</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3" t="n">
+        <v>41722.44444444445</v>
+      </c>
+      <c r="B440" s="0" t="inlineStr">
+        <is>
+          <t>缓冲区溢出漏洞实验</t>
+        </is>
+      </c>
+      <c r="C440" s="0" t="n">
+        <v>19824</v>
+      </c>
+      <c r="D440" s="0" t="n">
+        <v>215010</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="n">
+        <v>41632.60555555556</v>
+      </c>
+      <c r="B441" s="0" t="inlineStr">
+        <is>
+          <t>正则表达式基础</t>
+        </is>
+      </c>
+      <c r="C441" s="0" t="n">
+        <v>20616</v>
+      </c>
+      <c r="D441" s="0" t="n">
+        <v>237585</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="n">
+        <v>42008.38263888889</v>
+      </c>
+      <c r="B442" s="0" t="inlineStr">
+        <is>
+          <t>数据结构与算法</t>
+        </is>
+      </c>
+      <c r="C442" s="0" t="n">
+        <v>20991</v>
+      </c>
+      <c r="D442" s="0" t="n">
+        <v>238575</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="n">
+        <v>41861.47291666668</v>
+      </c>
+      <c r="B443" s="0" t="inlineStr">
+        <is>
+          <t>全面解析PythonChallenge</t>
+        </is>
+      </c>
+      <c r="C443" s="0" t="n">
+        <v>21363</v>
+      </c>
+      <c r="D443" s="0" t="n">
+        <v>250029</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="n">
+        <v>42290.72013888889</v>
+      </c>
+      <c r="B444" s="0" t="inlineStr">
+        <is>
+          <t>Python基于共现提取《釜山行》人物关系</t>
+        </is>
+      </c>
+      <c r="C444" s="0" t="n">
+        <v>21558</v>
+      </c>
+      <c r="D444" s="0" t="n">
+        <v>255231</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="n">
+        <v>41556.68263888889</v>
+      </c>
+      <c r="B445" s="0" t="inlineStr">
+        <is>
+          <t>Python Flask Web框架</t>
+        </is>
+      </c>
+      <c r="C445" s="0" t="n">
+        <v>22245</v>
+      </c>
+      <c r="D445" s="0" t="n">
+        <v>265473</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3" t="n">
+        <v>41681.68402777778</v>
+      </c>
+      <c r="B446" s="0" t="inlineStr">
+        <is>
+          <t>基于 JavaScript 实现玫瑰花</t>
+        </is>
+      </c>
+      <c r="C446" s="0" t="n">
+        <v>22332</v>
+      </c>
+      <c r="D446" s="0" t="n">
+        <v>268002</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3" t="n">
+        <v>41681.61388888889</v>
+      </c>
+      <c r="B447" s="0" t="inlineStr">
+        <is>
+          <t>Linux内核分析</t>
+        </is>
+      </c>
+      <c r="C447" s="0" t="n">
+        <v>22437</v>
+      </c>
+      <c r="D447" s="0" t="n">
+        <v>268599</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3" t="n">
+        <v>41477.59375</v>
+      </c>
+      <c r="B448" s="0" t="inlineStr">
+        <is>
+          <t>Go语言编程</t>
+        </is>
+      </c>
+      <c r="C448" s="0" t="n">
+        <v>22596</v>
+      </c>
+      <c r="D448" s="0" t="n">
+        <v>288078</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3" t="n">
+        <v>41574.58055555557</v>
+      </c>
+      <c r="B449" s="0" t="inlineStr">
+        <is>
+          <t>Node.js 教程</t>
+        </is>
+      </c>
+      <c r="C449" s="0" t="n">
+        <v>22755</v>
+      </c>
+      <c r="D449" s="0" t="n">
+        <v>296940</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3" t="n">
+        <v>42010.47222222222</v>
+      </c>
+      <c r="B450" s="0" t="inlineStr">
+        <is>
+          <t>Django 搭建简易博客</t>
+        </is>
+      </c>
+      <c r="C450" s="0" t="n">
+        <v>22860</v>
+      </c>
+      <c r="D450" s="0" t="n">
+        <v>297213</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3" t="n">
+        <v>42155.50208333333</v>
+      </c>
+      <c r="B451" s="0" t="inlineStr">
+        <is>
+          <t>Python实现简单的Web服务器</t>
+        </is>
+      </c>
+      <c r="C451" s="0" t="n">
+        <v>24180</v>
+      </c>
+      <c r="D451" s="0" t="n">
+        <v>301101</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3" t="n">
+        <v>41583.75902777778</v>
+      </c>
+      <c r="B452" s="0" t="inlineStr">
+        <is>
+          <t>pygame开发打飞机游戏</t>
+        </is>
+      </c>
+      <c r="C452" s="0" t="n">
+        <v>24375</v>
+      </c>
+      <c r="D452" s="0" t="n">
+        <v>312411</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3" t="n">
+        <v>41632.68958333333</v>
+      </c>
+      <c r="B453" s="0" t="inlineStr">
+        <is>
+          <t>J2SE核心开发实战</t>
+        </is>
+      </c>
+      <c r="C453" s="0" t="n">
+        <v>24645</v>
+      </c>
+      <c r="D453" s="0" t="n">
+        <v>313872</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3" t="n">
+        <v>41478.73888888889</v>
+      </c>
+      <c r="B454" s="0" t="inlineStr">
+        <is>
+          <t>MongoDB 基础教程</t>
+        </is>
+      </c>
+      <c r="C454" s="0" t="n">
+        <v>25002</v>
+      </c>
+      <c r="D454" s="0" t="n">
+        <v>317172</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3" t="n">
+        <v>41585.79861111111</v>
+      </c>
+      <c r="B455" s="0" t="inlineStr">
+        <is>
+          <t>CSS速成教程</t>
+        </is>
+      </c>
+      <c r="C455" s="0" t="n">
+        <v>25389</v>
+      </c>
+      <c r="D455" s="0" t="n">
+        <v>322269</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3" t="n">
+        <v>41673.46180555555</v>
+      </c>
+      <c r="B456" s="0" t="inlineStr">
+        <is>
+          <t>C语言制作2048</t>
+        </is>
+      </c>
+      <c r="C456" s="0" t="n">
+        <v>25512</v>
+      </c>
+      <c r="D456" s="0" t="n">
+        <v>336756</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3" t="n">
+        <v>41613.56319444445</v>
+      </c>
+      <c r="B457" s="0" t="inlineStr">
+        <is>
+          <t>C语言制作简单计算器</t>
+        </is>
+      </c>
+      <c r="C457" s="0" t="n">
+        <v>26919</v>
+      </c>
+      <c r="D457" s="0" t="n">
+        <v>344760</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3" t="n">
+        <v>41724.90902777778</v>
+      </c>
+      <c r="B458" s="0" t="inlineStr">
+        <is>
+          <t>Hadoop入门进阶课程</t>
+        </is>
+      </c>
+      <c r="C458" s="0" t="n">
+        <v>26940</v>
+      </c>
+      <c r="D458" s="0" t="n">
+        <v>364323</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="n">
+        <v>41816.40138888889</v>
+      </c>
+      <c r="B459" s="0" t="inlineStr">
+        <is>
+          <t>Python科学计算(一)</t>
+        </is>
+      </c>
+      <c r="C459" s="0" t="n">
+        <v>28071</v>
+      </c>
+      <c r="D459" s="0" t="n">
+        <v>382851</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="n">
+        <v>42027.47986111111</v>
+      </c>
+      <c r="B460" s="0" t="inlineStr">
+        <is>
+          <t>经典算法解题实战</t>
+        </is>
+      </c>
+      <c r="C460" s="0" t="n">
+        <v>30393</v>
+      </c>
+      <c r="D460" s="0" t="n">
+        <v>384315</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="n">
+        <v>41835.63194444445</v>
+      </c>
+      <c r="B461" s="0" t="inlineStr">
+        <is>
+          <t>Python 破解验证码</t>
+        </is>
+      </c>
+      <c r="C461" s="0" t="n">
+        <v>30495</v>
+      </c>
+      <c r="D461" s="0" t="n">
+        <v>408936</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="n">
+        <v>41632.61527777778</v>
+      </c>
+      <c r="B462" s="0" t="inlineStr">
+        <is>
+          <t>Java进阶之设计模式</t>
+        </is>
+      </c>
+      <c r="C462" s="0" t="n">
+        <v>31437</v>
+      </c>
+      <c r="D462" s="0" t="n">
+        <v>420087</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3" t="n">
+        <v>41652.625</v>
+      </c>
+      <c r="B463" s="0" t="inlineStr">
+        <is>
+          <t>操作系统原理与实践</t>
+        </is>
+      </c>
+      <c r="C463" s="0" t="n">
+        <v>31476</v>
+      </c>
+      <c r="D463" s="0" t="n">
+        <v>442464</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3" t="n">
+        <v>41531.64444444444</v>
+      </c>
+      <c r="B464" s="0" t="inlineStr">
+        <is>
+          <t>PHP 编程语言</t>
+        </is>
+      </c>
+      <c r="C464" s="0" t="n">
+        <v>31920</v>
+      </c>
+      <c r="D464" s="0" t="n">
+        <v>464382</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3" t="n">
+        <v>42211.51458333333</v>
+      </c>
+      <c r="B465" s="0" t="inlineStr">
+        <is>
+          <t>Python3 色情图片识别</t>
+        </is>
+      </c>
+      <c r="C465" s="0" t="n">
+        <v>33093</v>
+      </c>
+      <c r="D465" s="0" t="n">
+        <v>467016</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3" t="n">
+        <v>42219.57638888889</v>
+      </c>
+      <c r="B466" s="0" t="inlineStr">
+        <is>
+          <t>高德API+Python解决租房问题</t>
+        </is>
+      </c>
+      <c r="C466" s="0" t="n">
+        <v>33348</v>
+      </c>
+      <c r="D466" s="0" t="n">
+        <v>497781</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3" t="n">
+        <v>41531.64166666667</v>
+      </c>
+      <c r="B467" s="0" t="inlineStr">
+        <is>
+          <t>Javascript基础（新版）</t>
+        </is>
+      </c>
+      <c r="C467" s="0" t="n">
+        <v>36387</v>
+      </c>
+      <c r="D467" s="0" t="n">
+        <v>515934</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3" t="n">
+        <v>41603.41111111111</v>
+      </c>
+      <c r="B468" s="0" t="inlineStr">
+        <is>
+          <t>Linux命令实例练习</t>
+        </is>
+      </c>
+      <c r="C468" s="0" t="n">
+        <v>36756</v>
+      </c>
+      <c r="D468" s="0" t="n">
+        <v>523839</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="3" t="n">
+        <v>41531.64166666667</v>
+      </c>
+      <c r="B469" s="0" t="inlineStr">
+        <is>
+          <t>数据结构(新版)</t>
+        </is>
+      </c>
+      <c r="C469" s="0" t="n">
+        <v>39177</v>
+      </c>
+      <c r="D469" s="0" t="n">
+        <v>604179</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="3" t="n">
+        <v>42218.63819444443</v>
+      </c>
+      <c r="B470" s="0" t="inlineStr">
+        <is>
+          <t>Python3 简明教程</t>
+        </is>
+      </c>
+      <c r="C470" s="0" t="n">
+        <v>39972</v>
+      </c>
+      <c r="D470" s="0" t="n">
+        <v>645114</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="3" t="n">
+        <v>41574.55833333332</v>
+      </c>
+      <c r="B471" s="0" t="inlineStr">
+        <is>
+          <t>HTML5基础入门</t>
+        </is>
+      </c>
+      <c r="C471" s="0" t="n">
+        <v>43068</v>
+      </c>
+      <c r="D471" s="0" t="n">
+        <v>788607</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="3" t="n">
+        <v>42238.39861111111</v>
+      </c>
+      <c r="B472" s="0" t="inlineStr">
+        <is>
+          <t>Python3 实现火车票查询工具</t>
+        </is>
+      </c>
+      <c r="C472" s="0" t="n">
+        <v>51150</v>
+      </c>
+      <c r="D472" s="0" t="n">
+        <v>810180</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="3" t="n">
+        <v>41407.45694444444</v>
+      </c>
+      <c r="B473" s="0" t="inlineStr">
+        <is>
+          <t>Python编程语言</t>
+        </is>
+      </c>
+      <c r="C473" s="0" t="n">
+        <v>51879</v>
+      </c>
+      <c r="D473" s="0" t="n">
+        <v>978141</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="3" t="n">
+        <v>41632.61458333334</v>
+      </c>
+      <c r="B474" s="0" t="inlineStr">
+        <is>
+          <t>TCP/IP网络协议基础</t>
+        </is>
+      </c>
+      <c r="C474" s="0" t="n">
+        <v>58215</v>
+      </c>
+      <c r="D474" s="0" t="n">
+        <v>1032588</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="3" t="n">
+        <v>41531.64097222222</v>
+      </c>
+      <c r="B475" s="0" t="inlineStr">
+        <is>
+          <t>HTML基础入门</t>
+        </is>
+      </c>
+      <c r="C475" s="0" t="n">
+        <v>63981</v>
+      </c>
+      <c r="D475" s="0" t="n">
+        <v>1125729</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="3" t="n">
+        <v>41837.40486111111</v>
+      </c>
+      <c r="B476" s="0" t="inlineStr">
+        <is>
+          <t>200行Python代码实现2048</t>
+        </is>
+      </c>
+      <c r="C476" s="0" t="n">
+        <v>71685</v>
+      </c>
+      <c r="D476" s="0" t="n">
+        <v>1189731</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="3" t="n">
+        <v>41407.4625</v>
+      </c>
+      <c r="B477" s="0" t="inlineStr">
+        <is>
+          <t>MySQL 基础课程</t>
+        </is>
+      </c>
+      <c r="C477" s="0" t="n">
+        <v>78792</v>
+      </c>
+      <c r="D477" s="0" t="n">
+        <v>1583538</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="3" t="n">
+        <v>41516.60902777778</v>
+      </c>
+      <c r="B478" s="0" t="inlineStr">
+        <is>
+          <t>Java编程语言（新版）</t>
+        </is>
+      </c>
+      <c r="C478" s="0" t="n">
+        <v>79074</v>
+      </c>
+      <c r="D478" s="0" t="n">
+        <v>1884150</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="3" t="n">
+        <v>41592.78680555556</v>
+      </c>
+      <c r="B479" s="0" t="inlineStr">
+        <is>
+          <t>C 语言入门教程</t>
+        </is>
+      </c>
+      <c r="C479" s="0" t="n">
+        <v>85434</v>
+      </c>
+      <c r="D479" s="0" t="n">
+        <v>2000568</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="3" t="n">
+        <v>41407.45763888889</v>
+      </c>
+      <c r="B480" s="0" t="inlineStr">
+        <is>
+          <t>Git 实战教程</t>
+        </is>
+      </c>
+      <c r="C480" s="0" t="n">
+        <v>93153</v>
+      </c>
+      <c r="D480" s="0" t="n">
+        <v>2109564</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="3" t="n">
+        <v>41702.41319444445</v>
+      </c>
+      <c r="B481" s="0" t="inlineStr">
+        <is>
+          <t>Python快速教程</t>
+        </is>
+      </c>
+      <c r="C481" s="0" t="n">
+        <v>100155</v>
+      </c>
+      <c r="D481" s="0" t="n">
+        <v>2590047</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="3" t="n">
+        <v>41837.7375</v>
+      </c>
+      <c r="B482" s="0" t="inlineStr">
+        <is>
+          <t>Python 图片转字符画</t>
+        </is>
+      </c>
+      <c r="C482" s="0" t="n">
+        <v>106950</v>
+      </c>
+      <c r="D482" s="0" t="n">
+        <v>3720903</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="3" t="n">
+        <v>41407.45694444444</v>
+      </c>
+      <c r="B483" s="0" t="inlineStr">
+        <is>
+          <t>Vim编辑器</t>
+        </is>
+      </c>
+      <c r="C483" s="0" t="n">
+        <v>118629</v>
+      </c>
+      <c r="D483" s="0" t="n">
+        <v>4229313</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3" t="n">
+        <v>41407.45486111111</v>
+      </c>
+      <c r="B484" s="0" t="inlineStr">
+        <is>
+          <t>Linux 基础入门（新版）</t>
+        </is>
+      </c>
+      <c r="C484" s="0" t="n">
+        <v>391962</v>
+      </c>
+      <c r="D484" s="0" t="n">
+        <v>5073894</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3" t="n">
+        <v>41597.77222222222</v>
+      </c>
+      <c r="B485" s="0" t="inlineStr">
+        <is>
+          <t>新手指南之玩转实验楼</t>
+        </is>
+      </c>
+      <c r="C485" s="0" t="n">
+        <v>459144</v>
+      </c>
+      <c r="D485" s="0" t="n">
+        <v>23875374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D485"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>创建时间</t>
